--- a/Tailieu/Thietke/Thiết kế CSDL.xlsx
+++ b/Tailieu/Thietke/Thiết kế CSDL.xlsx
@@ -1303,17 +1303,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="17" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
